--- a/biology/Médecine/Panel_(immuno-hématologie)/Panel_(immuno-hématologie).xlsx
+++ b/biology/Médecine/Panel_(immuno-hématologie)/Panel_(immuno-hématologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panel_(immuno-h%C3%A9matologie)</t>
+          <t>Panel_(immuno-hématologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un panel est un ensemble d'hématies de groupe O et de phénotype connu dans de nombreux autres systèmes de groupe sanguin (RH, KEL, MNS, FY, etc.) permettant le dépistage et l'identification des anticorps irréguliers.
 Le terme s'utilise également pour un ensemble de plaquettes, de polynucléaires ou de lymphocytes, de phénotypes connus, permettant la recherche des anticorps anti-plaquettes, anti-polynucléaires, ou anti-HLA.
